--- a/biology/Zoologie/Iberolacerta_monticola/Iberolacerta_monticola.xlsx
+++ b/biology/Zoologie/Iberolacerta_monticola/Iberolacerta_monticola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iberolacerta monticola est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iberolacerta monticola est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre du niveau de la mer jusqu'à 2 000 m d'altitude[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre du niveau de la mer jusqu'à 2 000 m d'altitude :
 au Portugal dans la Serra da Estrela ;
 en Espagne en Galice, en Asturies, en Cantabrie et dans le nord de la Castille-et-León.
 </t>
@@ -544,9 +558,11 @@
           <t>Liste de sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (8 mai 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (8 mai 2015) :
 Iberolacerta monticola astur Arribas,&amp; Galán, 2014 d'Espagne
 Iberolacerta monticola monticola Boulenger, 1905 du Portugal et Nord d'Espagne.</t>
         </is>
@@ -576,7 +592,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Arribas, Galán, Remón &amp; Naveira, 2014 : A new mountain lizard from Montes de León (NW Iberian Peninsula): Iberolacerta monticola astur ssp. nov. (Squamata: Lacertidae). Zootaxa, no 3796 (2), p. 201–236.
 Boulenger, 1905 : A contribution to the knowledge of the varieties of the Wall-Lizard (Lacerta muralis) in western Europe and North Africa. Transactions of the Zoological Society of London, vol. 17, p. 351-420 (texte intégral).
